--- a/cpkcor_ra8d1b/docs/CPKCOR-RA8D1B_Exp_Peripherals_chs_protected.xlsx
+++ b/cpkcor_ra8d1b/docs/CPKCOR-RA8D1B_Exp_Peripherals_chs_protected.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://renesasgroup-my.sharepoint.com/personal/craig_wu_wx_renesas_com/Documents/2024/_Working/2024_CPKRA8x1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="8_{88796329-9323-4D8E-816A-F53B46755FBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4746AE2F-9848-4A87-B8A6-A67633270054}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{261AAC31-5692-4D18-B2EB-52CC254027EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E63B9D75-12C6-4F23-B07C-AF7216F85C89}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AADA7CA5-2034-48D6-9BAF-5564666271BD}"/>
   </bookViews>
@@ -48,7 +48,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
 调整R420/R403，修改USBHS_VBUS连接，以便使用LCD_D18信号</t>
@@ -62,7 +62,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
 调整 R402/R403 重新设置USBHS_VBUS</t>
@@ -261,7 +261,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="8"/>
@@ -305,7 +305,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -321,6 +321,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -689,7 +695,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -803,6 +809,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1415,7 +1433,7 @@
       <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="L7" sqref="L7"/>
+      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1610,27 +1628,27 @@
       <c r="D4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="27" t="str" cm="1">
+      <c r="E4" s="41" t="str" cm="1">
         <f t="array" aca="1" ref="E4" ca="1">INDIRECT(ADDRESS(COLUMN(),ROW()))</f>
         <v>16位SDRAM</v>
       </c>
-      <c r="F4" s="27" t="str" cm="1">
+      <c r="F4" s="41" t="str" cm="1">
         <f t="array" aca="1" ref="F4" ca="1">INDIRECT(ADDRESS(COLUMN(),ROW()))</f>
         <v>双向USB 2.0 高速</v>
       </c>
-      <c r="G4" s="27" t="str" cm="1">
+      <c r="G4" s="41" t="str" cm="1">
         <f t="array" aca="1" ref="G4" ca="1">INDIRECT(ADDRESS(COLUMN(),ROW()))</f>
         <v>SWD调试</v>
       </c>
-      <c r="H4" s="27" t="str" cm="1">
+      <c r="H4" s="41" t="str" cm="1">
         <f t="array" aca="1" ref="H4" ca="1">INDIRECT(ADDRESS(COLUMN(),ROW()))</f>
         <v>QSPI Flash</v>
       </c>
-      <c r="I4" s="27" t="str" cm="1">
+      <c r="I4" s="41" t="str" cm="1">
         <f t="array" aca="1" ref="I4" ca="1">INDIRECT(ADDRESS(COLUMN(),ROW()))</f>
         <v>SDHI1_A</v>
       </c>
-      <c r="J4" s="27" t="str" cm="1">
+      <c r="J4" s="39" t="str" cm="1">
         <f t="array" aca="1" ref="J4" ca="1">INDIRECT(ADDRESS(COLUMN(),ROW()))</f>
         <v>MIPI-DSI</v>
       </c>
@@ -2622,14 +2640,14 @@
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="40" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="33" cm="1">
         <f t="array" ref="C10">_xlfn.IFS(B10=_xlfn.UNICHAR(10004),1,B10=_xlfn.UNICHAR(10006),0)</f>
         <v>1</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="38" t="s">
         <v>0</v>
       </c>
       <c r="E10" s="11">
@@ -7701,7 +7719,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Uo2i81H9WHk7erOt42TJdXNWy95pzxCn1cjB+x7fC9xRnvW+5feXfg8lAORylc51Wxco4b1r2j041ZSCbMU/ow==" saltValue="CHp7eAMh49JW5Xx6TzV6Sg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ZSUnwAuGyOmJlZo3oZVXy5CgJn2uF4innxEPxwoySNjU2fyF2ydXvbc/ieOHSG0dhyHTBuqETsndcDrLTuT6wQ==" saltValue="tRZxFTy7QDBa2N//HCNL2Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="A4">
     <cfRule type="expression" dxfId="27" priority="23">
